--- a/Document/Plan.xlsx
+++ b/Document/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Sapo\Mock\MockProject\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D69068-F035-46CB-B90C-85D72D3E6481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A04984E-6723-4D16-B96B-79C1C0ABD399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t xml:space="preserve">Giai Đoạn </t>
   </si>
@@ -72,28 +72,58 @@
     <t>BPMN Tổng quát</t>
   </si>
   <si>
-    <t>BPMN quy trình Quản lý Nhà cung cấp</t>
-  </si>
-  <si>
     <t>BPMN quy trình Quản lý sản phẩm</t>
   </si>
   <si>
     <t>Ngọc</t>
   </si>
   <si>
-    <t>Minh</t>
-  </si>
-  <si>
     <t>Thiện</t>
   </si>
   <si>
-    <t>Vũ Minh</t>
-  </si>
-  <si>
-    <t>Thiện,Minh</t>
-  </si>
-  <si>
     <t>Đức Anh</t>
+  </si>
+  <si>
+    <t>Nhật Minh</t>
+  </si>
+  <si>
+    <t>Hoàng Minh</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Thiện,Nhật Minh</t>
+  </si>
+  <si>
+    <t>Giai đoạn 2</t>
+  </si>
+  <si>
+    <t>Quản lý nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Quản lý sản Phẩm</t>
+  </si>
+  <si>
+    <t>Quản lý hợp đồng , phiếu nhập</t>
+  </si>
+  <si>
+    <t>Quản lý nhân viên</t>
+  </si>
+  <si>
+    <t>Quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Quản lý xuất hàng giữa các kho</t>
+  </si>
+  <si>
+    <t>Thiện, Nhật Minh</t>
+  </si>
+  <si>
+    <t>Quản lý đơn vị vận chuyển</t>
+  </si>
+  <si>
+    <t>Ngọc,Hoàng Minh</t>
   </si>
 </sst>
 </file>
@@ -117,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,18 +170,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -548,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -559,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -578,85 +632,125 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F15:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
